--- a/data/trans_bre/P16A_n_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A_n_R2-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.466489596092392</v>
+        <v>0.3497772865548673</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.82486225601227</v>
+        <v>-2.302871960938112</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.378118930362926</v>
+        <v>-6.426815770511131</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.219872397374469</v>
+        <v>-1.938492934709053</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02431652988842119</v>
+        <v>0.01698815417844084</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1195019072658269</v>
+        <v>-0.1043028656891837</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2534348674469733</v>
+        <v>-0.2614887800025705</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1010463633748297</v>
+        <v>-0.064763393229003</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.10464897927575</v>
+        <v>12.07293294041909</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.34421888100387</v>
+        <v>10.55234640787962</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.100855960714681</v>
+        <v>6.608009880535914</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.237067984852812</v>
+        <v>8.161666759128329</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9273035796268643</v>
+        <v>0.8274828225371617</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5695516945033954</v>
+        <v>0.5731265668088683</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3252724759844851</v>
+        <v>0.3450612892568394</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3224665577259183</v>
+        <v>0.3201859037747156</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.12639459999134</v>
+        <v>3.126190964586097</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9564508397207041</v>
+        <v>1.060893174377813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.56452648140959</v>
+        <v>-4.624319576433988</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.4973236362784522</v>
+        <v>-0.1353722802555049</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.195242382886256</v>
+        <v>0.1916679668645936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03819456873611318</v>
+        <v>0.0507943705501078</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.176494979138089</v>
+        <v>-0.1721771369609909</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01317294507184843</v>
+        <v>-0.002942198357293071</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.27332338662611</v>
+        <v>14.46439043187114</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>14.216538834418</v>
+        <v>14.00535762045746</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.944981288517301</v>
+        <v>7.943438803674709</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.79340755918793</v>
+        <v>10.82573192744775</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.411427643527683</v>
+        <v>1.324836679218779</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7823380262952082</v>
+        <v>0.7981596369826937</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4067133854004881</v>
+        <v>0.4048309481928034</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4701606922188862</v>
+        <v>0.4548335960066104</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>13.38319709343198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19.22595151271946</v>
+        <v>19.22595151271945</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5661473564679586</v>
@@ -849,7 +849,7 @@
         <v>0.5186982880550014</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.5985500354398016</v>
+        <v>0.5985500354398012</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.223917650546933</v>
+        <v>2.263872503893935</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1264650867027509</v>
+        <v>-0.908068113669149</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.827628290663589</v>
+        <v>4.759218146679306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11.78802277040038</v>
+        <v>12.6391479783221</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1117479813345801</v>
+        <v>0.1264226123712928</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.009028266067070146</v>
+        <v>-0.02660778855913151</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1684795474633196</v>
+        <v>0.179426915990773</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3412227563981252</v>
+        <v>0.3456766196240039</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.73551772455691</v>
+        <v>18.18354456123961</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.28276007891501</v>
+        <v>13.96886984913989</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22.03523436406712</v>
+        <v>22.72592744543581</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26.80871708279497</v>
+        <v>26.39584036812208</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.150649579922683</v>
+        <v>1.191004949382851</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5012716469733974</v>
+        <v>0.492601468715284</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9321804906987957</v>
+        <v>0.9832898694064424</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9295187620858828</v>
+        <v>0.899856480208837</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>2.423301841702896</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.664242408799695</v>
+        <v>3.664242408799701</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2032031418898889</v>
@@ -949,7 +949,7 @@
         <v>0.09755943765762783</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1061323130853139</v>
+        <v>0.1061323130853141</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7207244612629293</v>
+        <v>0.4718743261222719</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3370519904343462</v>
+        <v>-0.02566587253042741</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.689247724453609</v>
+        <v>-1.438510228569893</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.3765731445478415</v>
+        <v>-0.2150585714587692</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03157711544085268</v>
+        <v>0.0161197869492315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01057364485912477</v>
+        <v>-0.001159270843106649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06401028726905249</v>
+        <v>-0.05590016423189405</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.009330938806745532</v>
+        <v>-0.006417457451015857</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.550742989436833</v>
+        <v>8.531606369680251</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>9.305591985479717</v>
+        <v>9.059482790827005</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.555311429006339</v>
+        <v>6.496259976187213</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.978713032058099</v>
+        <v>7.695534392312483</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4149776146497465</v>
+        <v>0.411272171337759</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3338207113182968</v>
+        <v>0.3405342114574426</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2866227566610868</v>
+        <v>0.286500394246514</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2467429689195346</v>
+        <v>0.2364888385999213</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>15.53392328861651</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17.05187230461813</v>
+        <v>17.05187230461814</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6472885818758594</v>
@@ -1049,7 +1049,7 @@
         <v>0.6086002647498472</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5494626843530434</v>
+        <v>0.5494626843530436</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.185779169562865</v>
+        <v>5.252893832620853</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>15.30504522480677</v>
+        <v>14.98181818917299</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.37310861191975</v>
+        <v>10.50343150348433</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11.99069401978172</v>
+        <v>11.62768569813453</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2336563214170344</v>
+        <v>0.2574203937306996</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5166912776286617</v>
+        <v>0.4948395407360681</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3693950937387984</v>
+        <v>0.3819825770209009</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3370715383625715</v>
+        <v>0.3314624664025985</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.6671355605152</v>
+        <v>16.90016876585204</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.01869869473617</v>
+        <v>25.5941411159457</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>20.59003609550929</v>
+        <v>20.42240455385411</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>21.69703317988033</v>
+        <v>21.62186369910729</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.173607435986248</v>
+        <v>1.169668777572177</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.128446790054648</v>
+        <v>1.111158450696907</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.906274075667185</v>
+        <v>0.8892744891214075</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7784020296696694</v>
+        <v>0.7815654771203667</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>36.50174844994478</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32.12815050351847</v>
+        <v>32.12815050351848</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>5.532818591705895</v>
@@ -1149,7 +1149,7 @@
         <v>5.434933704760297</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>3.114414394355893</v>
+        <v>3.114414394355894</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>26.85485050396456</v>
+        <v>26.94289670687711</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>35.65307913854802</v>
+        <v>36.12241490777682</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32.05004057014464</v>
+        <v>31.80571011733116</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25.63017351024834</v>
+        <v>25.01699075955282</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>3.194648563877585</v>
+        <v>3.141794627365485</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.881131910676964</v>
+        <v>3.125266289225826</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>3.088871389102445</v>
+        <v>3.14128165219485</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>1.530734448095816</v>
+        <v>1.48401597965864</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>34.62321142016249</v>
+        <v>34.47805737254752</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>44.84952789849192</v>
+        <v>44.84673217245864</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>40.68146655484471</v>
+        <v>40.54749010937866</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>37.88986802087986</v>
+        <v>37.31235055398005</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>9.589905655703133</v>
+        <v>10.32214941296953</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>8.736627462459673</v>
+        <v>9.017925386051649</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>9.633814978428921</v>
+        <v>9.661853568449754</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>6.467839093042331</v>
+        <v>6.093772079641966</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>10.30944552191469</v>
+        <v>10.36858275698205</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>12.34434756940922</v>
+        <v>12.51227783685359</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.584024574997247</v>
+        <v>9.541428969501615</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.395969499658232</v>
+        <v>8.55769559187207</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5540340172789774</v>
+        <v>0.5715661672823205</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4615206504088585</v>
+        <v>0.4726748134810637</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3944414970334161</v>
+        <v>0.3973687090000857</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.267034429738464</v>
+        <v>0.2763096420201811</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.43730270921857</v>
+        <v>14.4489860817627</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.1567449254372</v>
+        <v>17.09710444005966</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.96829067378412</v>
+        <v>13.97715759385353</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.75435822755126</v>
+        <v>12.86052110025976</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.8751430958150349</v>
+        <v>0.8799954596672332</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7084699245505031</v>
+        <v>0.717578990445487</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6358701610233384</v>
+        <v>0.6391179272045079</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.4437191671028042</v>
+        <v>0.4535829410442114</v>
       </c>
     </row>
     <row r="25">
